--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.334000000000001</v>
+        <v>7.781999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.44</v>
+        <v>5.954</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.896000000000001</v>
+        <v>-7.567000000000002</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.337999999999999</v>
+        <v>-8.411</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.473999999999999</v>
+        <v>4.843</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.706</v>
+        <v>16.409</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.138</v>
+        <v>16.593</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.954000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.327999999999999</v>
+        <v>-7.948</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.888</v>
+        <v>-7.869999999999999</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.444000000000001</v>
+        <v>6.034000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.207</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.956</v>
+        <v>6.572</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.731999999999999</v>
+        <v>-7.917999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.874</v>
+        <v>16.691</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>9.223000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.860000000000001</v>
+        <v>-7.712000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.706</v>
+        <v>-7.532999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.274</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.135</v>
       </c>
       <c r="E50" t="n">
-        <v>16.994</v>
+        <v>16.605</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.319999999999999</v>
+        <v>-8.384</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.664</v>
+        <v>4.944000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.582</v>
+        <v>5.091</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,13 +1553,13 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.14</v>
+        <v>5.773</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.052</v>
+        <v>-7.561000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.025999999999999</v>
+        <v>-6.783999999999999</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.774000000000001</v>
+        <v>-7.614</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.254000000000001</v>
+        <v>-8.132000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.676</v>
+        <v>-6.544</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.004</v>
+        <v>17.483</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.052</v>
+        <v>-8.102</v>
       </c>
       <c r="E97" t="n">
-        <v>16.362</v>
+        <v>16.845</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.596</v>
+        <v>5.931</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
